--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06547366666666667</v>
+        <v>0.01036033333333333</v>
       </c>
       <c r="N2">
-        <v>0.196421</v>
+        <v>0.031081</v>
       </c>
       <c r="O2">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="P2">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="Q2">
-        <v>0.045695185019</v>
+        <v>0.007230652759000001</v>
       </c>
       <c r="R2">
-        <v>0.4112566651710001</v>
+        <v>0.06507587483100001</v>
       </c>
       <c r="S2">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="T2">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>77.839292</v>
       </c>
       <c r="O3">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797517</v>
       </c>
       <c r="P3">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797518</v>
       </c>
       <c r="Q3">
         <v>18.108455051588</v>
@@ -632,10 +632,10 @@
         <v>162.976095464292</v>
       </c>
       <c r="S3">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797517</v>
       </c>
       <c r="T3">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>14.359551</v>
       </c>
       <c r="O4">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="P4">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="Q4">
         <v>3.340591585089</v>
@@ -694,10 +694,10 @@
         <v>30.065324265801</v>
       </c>
       <c r="S4">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="T4">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
     </row>
   </sheetData>
